--- a/raw/1960election.xlsx
+++ b/raw/1960election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF44E9-7DD9-F44B-A75B-080E896231ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61209124-D02D-524B-B0D6-E996D0CF16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="16240" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="1777">
   <si>
     <t>State</t>
   </si>
@@ -6098,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A936" zoomScale="191" workbookViewId="0">
-      <selection activeCell="C944" sqref="C944"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="191" workbookViewId="0">
+      <selection activeCell="D557" sqref="D557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18597,8 +18597,8 @@
       <c r="C555" t="s">
         <v>1425</v>
       </c>
-      <c r="D555" t="s">
-        <v>16</v>
+      <c r="D555">
+        <v>2</v>
       </c>
       <c r="E555" t="s">
         <v>1603</v>
@@ -18620,8 +18620,8 @@
       <c r="C556" t="s">
         <v>1425</v>
       </c>
-      <c r="D556" t="s">
-        <v>16</v>
+      <c r="D556">
+        <v>2</v>
       </c>
       <c r="E556" t="s">
         <v>682</v>

--- a/raw/1960election.xlsx
+++ b/raw/1960election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61209124-D02D-524B-B0D6-E996D0CF16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FAAD82-E621-034C-B079-A687505C294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="16240" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6098,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D557" sqref="D557"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="191" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10246,7 +10246,7 @@
         <v>221</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>1425</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -10269,7 +10269,7 @@
         <v>221</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>1425</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
@@ -10292,7 +10292,7 @@
         <v>221</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>1425</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -10315,7 +10315,7 @@
         <v>221</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>1425</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
